--- a/Input/Orient_familyCare/benefits.xlsx
+++ b/Input/Orient_familyCare/benefits.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="99">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -199,6 +199,9 @@
     <t xml:space="preserve">frequency</t>
   </si>
   <si>
+    <t xml:space="preserve">183_rule</t>
+  </si>
+  <si>
     <t xml:space="preserve">Family Care Product</t>
   </si>
   <si>
@@ -208,7 +211,7 @@
     <t xml:space="preserve">Worldwide including USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Mednet Gold/Mednet Silver Premium/Mednet Silver Classic/Mednet Green/Mednet Emerald/Mednet Pearl/Mednet Silk Road ( Outpatient treatment restricted to Clinics)</t>
+    <t xml:space="preserve">Mednet Gold/Mednet Silver Premium/Mednet Silver Classic/Mednet Green/Mednet Emerald/Mednet Pearl/Mednet Silk Road (Outpatient treatment restricted to Clinics)</t>
   </si>
   <si>
     <t xml:space="preserve">SEA- 100% of actual cost subject to 100% of UAE applicable network rates  Elsewhere- 80% of actual cost subject to 80% of UAE applicable network rates * No elective treatment reimbursement for Silk Road Network within UAE</t>
@@ -308,6 +311,9 @@
   </si>
   <si>
     <t xml:space="preserve">Annually</t>
+  </si>
+  <si>
+    <t xml:space="preserve">applied</t>
   </si>
   <si>
     <t xml:space="preserve">Consultations 20% co-pay with AED 50 max, Diagnostics, Physio, and Pharma 10% co-pay/10%/10%/50</t>
@@ -325,7 +331,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -352,11 +358,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -439,7 +441,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -464,31 +466,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -585,10 +583,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BJ4"/>
+  <dimension ref="A1:BK4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BF1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BK2" activeCellId="0" sqref="BK2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -653,8 +651,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="21.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="10.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="60" style="2" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="56.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="56.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="62" style="0" width="11.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -832,195 +831,201 @@
       <c r="BJ1" s="0" t="s">
         <v>57</v>
       </c>
+      <c r="BK1" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="125.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O2" s="0"/>
       <c r="P2" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q2" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>70</v>
+      <c r="Q2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="S2" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T2" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="U2" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="U2" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="V2" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X2" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y2" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z2" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA2" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC2" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD2" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE2" s="0"/>
       <c r="AF2" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG2" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH2" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AI2" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AJ2" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AK2" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL2" s="0"/>
       <c r="AN2" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AO2" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AR2" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AS2" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AT2" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AW2" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AX2" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AY2" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AZ2" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="BA2" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="BB2" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="BC2" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="BA2" s="0" t="s">
+      <c r="BD2" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="BB2" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC2" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="BD2" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="BE2" s="7" t="s">
-        <v>90</v>
+      <c r="BE2" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="BF2" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BG2" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="BI2" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BJ2" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="BK2" s="0" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8"/>
-      <c r="N3" s="9"/>
-      <c r="R3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="12"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
+      <c r="A3" s="7"/>
+      <c r="N3" s="8"/>
+      <c r="R3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="11"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
       <c r="BC3" s="3"/>
-      <c r="BD3" s="13"/>
-      <c r="BE3" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="BG3" s="15"/>
-      <c r="BI3" s="6"/>
+      <c r="BD3" s="12"/>
+      <c r="BE3" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="BG3" s="14"/>
+      <c r="BI3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8"/>
-      <c r="N4" s="9"/>
-      <c r="R4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="12"/>
-      <c r="AD4" s="10"/>
-      <c r="AE4" s="10"/>
+      <c r="A4" s="7"/>
+      <c r="N4" s="8"/>
+      <c r="R4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="11"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
       <c r="BC4" s="3"/>
-      <c r="BD4" s="13"/>
-      <c r="BE4" s="16" t="s">
-        <v>96</v>
+      <c r="BD4" s="12"/>
+      <c r="BE4" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="BG4" s="4"/>
     </row>
